--- a/data/spring-cloud-shop/shop-auth-resource_structure.xlsx
+++ b/data/spring-cloud-shop/shop-auth-resource_structure.xlsx
@@ -270,40 +270,40 @@
     <t>oauth2ClientProperties</t>
   </si>
   <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
     <t>accessTokenUri</t>
   </si>
   <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>clientId</t>
-  </si>
-  <si>
     <t>clientSecret</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>PREFIX</t>
   </si>
   <si>
     <t>permissions</t>
   </si>
   <si>
+    <t>DEFAULT_MATCHERS</t>
+  </si>
+  <si>
+    <t>java.lang.String[]</t>
+  </si>
+  <si>
+    <t>oAuth2Properties</t>
+  </si>
+  <si>
     <t>redisConnectionFactory</t>
   </si>
   <si>
     <t>org.springframework.data.redis.connection.RedisConnectionFactory</t>
-  </si>
-  <si>
-    <t>DEFAULT_MATCHERS</t>
-  </si>
-  <si>
-    <t>java.lang.String[]</t>
-  </si>
-  <si>
-    <t>oAuth2Properties</t>
   </si>
   <si>
     <t>AUTHORIZATION_HEADER</t>
@@ -2153,7 +2153,7 @@
         <v>59</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -2167,7 +2167,7 @@
         <v>59</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -2251,7 +2251,7 @@
         <v>59</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -2259,13 +2259,13 @@
         <v>55</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>59</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
